--- a/Images/Style_Themes_Examples_2.xlsx
+++ b/Images/Style_Themes_Examples_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zur Bonsen Georg\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
       <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>

--- a/Images/Style_Themes_Examples_2.xlsx
+++ b/Images/Style_Themes_Examples_2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\Beyond4P\B4P_Docu_Maker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zur-b\OneDrive\Documents\Programme\B4P\b4p-docu-maker\"/>
       <!-- B4P: Insert the path name -->
     </mc:Choice>
   </mc:AlternateContent>
